--- a/list_2_r.xlsx
+++ b/list_2_r.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1244,6 +1244,14 @@
         <v>1232334</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1192738</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1255,7 +1263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2067,6 +2075,14 @@
         <v>1092795</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1108744</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2078,7 +2094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2890,6 +2906,14 @@
         <v>1965804</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1902366</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2901,7 +2925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3713,6 +3737,14 @@
         <v>1053614</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>961897</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_2_r.xlsx
+++ b/list_2_r.xlsx
@@ -454,802 +454,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>757061</v>
+        <v>846085</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>765819</v>
+        <v>888671</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>846085</v>
+        <v>907427</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>888671</v>
+        <v>881779</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>907427</v>
+        <v>887470</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>881779</v>
+        <v>874461</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>887470</v>
+        <v>860946</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>874461</v>
+        <v>889311</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>860946</v>
+        <v>925023</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>889311</v>
+        <v>908175</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>925023</v>
+        <v>930072</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>908175</v>
+        <v>957046</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>930072</v>
+        <v>932764</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>957046</v>
+        <v>974838</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>932764</v>
+        <v>1085968</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>974838</v>
+        <v>1042452</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>1085968</v>
+        <v>1063568</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>1042452</v>
+        <v>1058590</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>1063568</v>
+        <v>1076238</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>1058590</v>
+        <v>1129606</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>1076238</v>
+        <v>1091964</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>1129606</v>
+        <v>1082146</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>1091964</v>
+        <v>1036585</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>1082146</v>
+        <v>1057594</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>1036585</v>
+        <v>1033943</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>1057594</v>
+        <v>1026565</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>1033943</v>
+        <v>1026413</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>1026565</v>
+        <v>1077657</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>1026413</v>
+        <v>1065374</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>1077657</v>
+        <v>1029482</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>1065374</v>
+        <v>1182051</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>1029482</v>
+        <v>1176308</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>1182051</v>
+        <v>1174963</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>1176308</v>
+        <v>1104941</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>1174963</v>
+        <v>1142894</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>1104941</v>
+        <v>1119176</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>1142894</v>
+        <v>1119407</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>1119176</v>
+        <v>1131330</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>1119407</v>
+        <v>1116598</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>1131330</v>
+        <v>1126952</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>1116598</v>
+        <v>1092961</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>1126952</v>
+        <v>1063611</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>1092961</v>
+        <v>1069661</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>1063611</v>
+        <v>1090836</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>1069661</v>
+        <v>1091175</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>1090836</v>
+        <v>1096723</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>1091175</v>
+        <v>1089483</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>1096723</v>
+        <v>1089326</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>1089483</v>
+        <v>1095913</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>1089326</v>
+        <v>1094951</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>1095913</v>
+        <v>1103936</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>1094951</v>
+        <v>1101211</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>1103936</v>
+        <v>1102799</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>1101211</v>
+        <v>1110009</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>1102799</v>
+        <v>1126641</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>1110009</v>
+        <v>1246325</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>1126641</v>
+        <v>1255994</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>1246325</v>
+        <v>1200273</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>1255994</v>
+        <v>1191348</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>1200273</v>
+        <v>1224879</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>1191348</v>
+        <v>1216490</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>1224879</v>
+        <v>1223392</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>1216490</v>
+        <v>1265253</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>1223392</v>
+        <v>1261267</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>1265253</v>
+        <v>1258094</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>1261267</v>
+        <v>1262335</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>1258094</v>
+        <v>1250214</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>1262335</v>
+        <v>1226883</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>1250214</v>
+        <v>1181095</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>1226883</v>
+        <v>1183767</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>1181095</v>
+        <v>1163265</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>1183767</v>
+        <v>1155385</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>1163265</v>
+        <v>1138538</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>1155385</v>
+        <v>1144070</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>1138538</v>
+        <v>1124173</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>1144070</v>
+        <v>1101361</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>1124173</v>
+        <v>1145804</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>1101361</v>
+        <v>1140189</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>1145804</v>
+        <v>1132218</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>1140189</v>
+        <v>1143621</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>1132218</v>
+        <v>1094147</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>1143621</v>
+        <v>1104955</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>1094147</v>
+        <v>1114247</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>1104955</v>
+        <v>1150678</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>1114247</v>
+        <v>1136943</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>1150678</v>
+        <v>1110940</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>1136943</v>
+        <v>1087994</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>1110940</v>
+        <v>1119313</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>1087994</v>
+        <v>1139829</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>1119313</v>
+        <v>1238817</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>1139829</v>
+        <v>1201451</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>1238817</v>
+        <v>1292434</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>1201451</v>
+        <v>1320611</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>1292434</v>
+        <v>1320324</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>1320611</v>
+        <v>1272469</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>1320324</v>
+        <v>1275806</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>1272469</v>
+        <v>1232334</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>1275806</v>
+        <v>1192738</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>1232334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>1192738</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1285,802 +1285,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>867820</v>
+        <v>900315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>870076</v>
+        <v>820720</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>900315</v>
+        <v>816345</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>820720</v>
+        <v>835990</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>816345</v>
+        <v>839855</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>835990</v>
+        <v>850249</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>839855</v>
+        <v>844395</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>850249</v>
+        <v>854532</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>844395</v>
+        <v>819415</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>854532</v>
+        <v>843518</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>819415</v>
+        <v>842601</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>843518</v>
+        <v>804433</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>842601</v>
+        <v>799185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>804433</v>
+        <v>821966</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>799185</v>
+        <v>794909</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>821966</v>
+        <v>791816</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>794909</v>
+        <v>742435</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>791816</v>
+        <v>785251</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>742435</v>
+        <v>767666</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>785251</v>
+        <v>767609</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>767666</v>
+        <v>758788</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>767609</v>
+        <v>745167</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>758788</v>
+        <v>752141</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>745167</v>
+        <v>803995</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>752141</v>
+        <v>824148</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>803995</v>
+        <v>827979</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>824148</v>
+        <v>830467</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>827979</v>
+        <v>816626</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>830467</v>
+        <v>822992</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>816626</v>
+        <v>813874</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>822992</v>
+        <v>902508</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>813874</v>
+        <v>873811</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>902508</v>
+        <v>876387</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>873811</v>
+        <v>893428</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>876387</v>
+        <v>822456</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>893428</v>
+        <v>838501</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>822456</v>
+        <v>823574</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>838501</v>
+        <v>826938</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>823574</v>
+        <v>733127</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>826938</v>
+        <v>733079</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>733127</v>
+        <v>749212</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>733079</v>
+        <v>704975</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>749212</v>
+        <v>736788</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>704975</v>
+        <v>767552</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>736788</v>
+        <v>762009</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>767552</v>
+        <v>753374</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>762009</v>
+        <v>745186</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>753374</v>
+        <v>755508</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>745186</v>
+        <v>742505</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>755508</v>
+        <v>775500</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>742505</v>
+        <v>764677</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>775500</v>
+        <v>781519</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>764677</v>
+        <v>796771</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>781519</v>
+        <v>773676</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>796771</v>
+        <v>793106</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>773676</v>
+        <v>781391</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>793106</v>
+        <v>788230</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>781391</v>
+        <v>797183</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>788230</v>
+        <v>865178</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>797183</v>
+        <v>825984</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>865178</v>
+        <v>830104</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>825984</v>
+        <v>807245</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>830104</v>
+        <v>826175</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>807245</v>
+        <v>831615</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>826175</v>
+        <v>838479</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>831615</v>
+        <v>844936</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>838479</v>
+        <v>852239</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>844936</v>
+        <v>826186</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>852239</v>
+        <v>796519</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>826186</v>
+        <v>825404</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>796519</v>
+        <v>821582</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>825404</v>
+        <v>818173</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>821582</v>
+        <v>807982</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>818173</v>
+        <v>810912</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>807982</v>
+        <v>810527</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>810912</v>
+        <v>812306</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>810527</v>
+        <v>779144</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>812306</v>
+        <v>774484</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>779144</v>
+        <v>801979</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>774484</v>
+        <v>805971</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>801979</v>
+        <v>755663</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>805971</v>
+        <v>766546</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>755663</v>
+        <v>788039</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>766546</v>
+        <v>790315</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>788039</v>
+        <v>780190</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>790315</v>
+        <v>808632</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>780190</v>
+        <v>803046</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>808632</v>
+        <v>773781</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>803046</v>
+        <v>805153</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>773781</v>
+        <v>846206</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>805153</v>
+        <v>856619</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>846206</v>
+        <v>859252</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>856619</v>
+        <v>896365</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>859252</v>
+        <v>902316</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>896365</v>
+        <v>892101</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>902316</v>
+        <v>930298</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>892101</v>
+        <v>1092795</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>930298</v>
+        <v>1108744</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>1092795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>1108744</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2116,802 +2116,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>764167</v>
+        <v>798437</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>794921</v>
+        <v>802711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>798437</v>
+        <v>804930</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>802711</v>
+        <v>814629</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>804930</v>
+        <v>809358</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>814629</v>
+        <v>829636</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>809358</v>
+        <v>848094</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>829636</v>
+        <v>861799</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>848094</v>
+        <v>905816</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>861799</v>
+        <v>883503</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>905816</v>
+        <v>901407</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>883503</v>
+        <v>931425</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>901407</v>
+        <v>1026036</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>931425</v>
+        <v>1110078</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>1026036</v>
+        <v>1052143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>1110078</v>
+        <v>989804</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>1052143</v>
+        <v>954134</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>989804</v>
+        <v>934035</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>954134</v>
+        <v>873250</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>934035</v>
+        <v>842371</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>873250</v>
+        <v>808869</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>842371</v>
+        <v>774188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>808869</v>
+        <v>781229</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>774188</v>
+        <v>809027</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>781229</v>
+        <v>829883</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>809027</v>
+        <v>837460</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>829883</v>
+        <v>815850</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>837460</v>
+        <v>810222</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>815850</v>
+        <v>781567</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>810222</v>
+        <v>804540</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>781567</v>
+        <v>800434</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>804540</v>
+        <v>794553</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>800434</v>
+        <v>831775</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>794553</v>
+        <v>830788</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>831775</v>
+        <v>808399</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>830788</v>
+        <v>854562</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>808399</v>
+        <v>856654</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>854562</v>
+        <v>900574</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>856654</v>
+        <v>976892</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>900574</v>
+        <v>941831</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>976892</v>
+        <v>1006922</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>941831</v>
+        <v>976549</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>1006922</v>
+        <v>954653</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>976549</v>
+        <v>936919</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>954653</v>
+        <v>928249</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>936919</v>
+        <v>958188</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>928249</v>
+        <v>945869</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>958188</v>
+        <v>941007</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>945869</v>
+        <v>1006990</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>941007</v>
+        <v>1037043</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>1006990</v>
+        <v>1049338</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>1037043</v>
+        <v>1049168</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>1049338</v>
+        <v>990011</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>1049168</v>
+        <v>956613</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>990011</v>
+        <v>1011332</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>956613</v>
+        <v>1050251</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>1011332</v>
+        <v>1069181</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>1050251</v>
+        <v>1026074</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>1069181</v>
+        <v>1152419</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>1026074</v>
+        <v>1221324</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>1152419</v>
+        <v>1414278</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>1221324</v>
+        <v>1426444</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>1414278</v>
+        <v>1473132</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>1426444</v>
+        <v>1444522</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>1473132</v>
+        <v>1468285</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>1444522</v>
+        <v>1479565</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>1468285</v>
+        <v>1485047</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>1479565</v>
+        <v>1507587</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>1485047</v>
+        <v>1563474</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>1507587</v>
+        <v>1592538</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>1563474</v>
+        <v>1604651</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>1592538</v>
+        <v>1573322</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>1604651</v>
+        <v>1607298</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>1573322</v>
+        <v>1666383</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>1607298</v>
+        <v>1640537</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>1666383</v>
+        <v>1648761</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>1640537</v>
+        <v>1644342</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>1648761</v>
+        <v>1622619</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>1644342</v>
+        <v>1637471</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>1622619</v>
+        <v>1660834</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>1637471</v>
+        <v>1561614</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>1660834</v>
+        <v>1562144</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>1561614</v>
+        <v>1587654</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>1562144</v>
+        <v>1625506</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>1587654</v>
+        <v>1565085</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>1625506</v>
+        <v>1532818</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>1565085</v>
+        <v>1540761</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>1532818</v>
+        <v>1516418</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>1540761</v>
+        <v>1572828</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>1516418</v>
+        <v>1562795</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>1572828</v>
+        <v>1685315</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>1562795</v>
+        <v>1658511</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>1685315</v>
+        <v>1779600</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>1658511</v>
+        <v>1806586</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>1779600</v>
+        <v>1811845</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>1806586</v>
+        <v>1887798</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>1811845</v>
+        <v>1965804</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>1887798</v>
+        <v>1902366</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>1965804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>1902366</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2947,802 +2947,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>603072</v>
+        <v>603423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>600052</v>
+        <v>621714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>603423</v>
+        <v>606346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>621714</v>
+        <v>636158</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>606346</v>
+        <v>631383</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>636158</v>
+        <v>684619</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>631383</v>
+        <v>686183</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>684619</v>
+        <v>694219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>686183</v>
+        <v>726255</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>694219</v>
+        <v>740388</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>726255</v>
+        <v>601383</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>740388</v>
+        <v>608959</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>601383</v>
+        <v>603980</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>608959</v>
+        <v>634012</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>603980</v>
+        <v>620416</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>634012</v>
+        <v>611138</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>620416</v>
+        <v>615295</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>611138</v>
+        <v>606541</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>615295</v>
+        <v>610583</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>606541</v>
+        <v>612116</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>610583</v>
+        <v>619249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>612116</v>
+        <v>579939</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>619249</v>
+        <v>589345</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>579939</v>
+        <v>615315</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>589345</v>
+        <v>633102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>615315</v>
+        <v>657498</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>633102</v>
+        <v>681323</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>657498</v>
+        <v>664185</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>681323</v>
+        <v>667876</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>664185</v>
+        <v>698537</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>667876</v>
+        <v>707470</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>698537</v>
+        <v>698981</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>707470</v>
+        <v>737261</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>698981</v>
+        <v>749481</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>737261</v>
+        <v>737252</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>749481</v>
+        <v>778003</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>737252</v>
+        <v>782972</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>778003</v>
+        <v>821664</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>782972</v>
+        <v>740027</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>821664</v>
+        <v>710025</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>740027</v>
+        <v>828931</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>710025</v>
+        <v>856342</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>828931</v>
+        <v>853303</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>856342</v>
+        <v>852631</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>853303</v>
+        <v>824998</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>852631</v>
+        <v>813968</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>824998</v>
+        <v>807931</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>813968</v>
+        <v>747899</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>807931</v>
+        <v>718148</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>747899</v>
+        <v>734096</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>718148</v>
+        <v>712303</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>734096</v>
+        <v>736661</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>712303</v>
+        <v>706693</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>736661</v>
+        <v>703749</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>706693</v>
+        <v>725211</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>703749</v>
+        <v>759451</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>725211</v>
+        <v>780558</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>759451</v>
+        <v>744264</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>780558</v>
+        <v>796040</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>744264</v>
+        <v>824994</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>796040</v>
+        <v>832119</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>824994</v>
+        <v>854001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>832119</v>
+        <v>906667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>854001</v>
+        <v>815396</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>906667</v>
+        <v>790047</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>815396</v>
+        <v>782861</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>790047</v>
+        <v>805492</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>782861</v>
+        <v>1302229</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>805492</v>
+        <v>1340852</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>1302229</v>
+        <v>1320774</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>1340852</v>
+        <v>1246321</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>1320774</v>
+        <v>1176624</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>1246321</v>
+        <v>1120876</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>1176624</v>
+        <v>1124446</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>1120876</v>
+        <v>1074790</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>1124446</v>
+        <v>1020586</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>1074790</v>
+        <v>978509</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>1020586</v>
+        <v>971206</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>978509</v>
+        <v>966777</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>971206</v>
+        <v>953411</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>966777</v>
+        <v>904018</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>953411</v>
+        <v>909924</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>904018</v>
+        <v>923281</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>909924</v>
+        <v>922552</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>923281</v>
+        <v>930346</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>922552</v>
+        <v>926251</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>930346</v>
+        <v>910097</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>926251</v>
+        <v>840682</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>910097</v>
+        <v>922184</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>840682</v>
+        <v>930526</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>922184</v>
+        <v>889583</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>930526</v>
+        <v>1001571</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>889583</v>
+        <v>975676</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>1001571</v>
+        <v>995449</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>975676</v>
+        <v>1009805</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>995449</v>
+        <v>1017010</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>1009805</v>
+        <v>1053614</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>1017010</v>
+        <v>961897</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>1053614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>961897</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/list_2_r.xlsx
+++ b/list_2_r.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1241,7 +1241,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1224423</v>
       </c>
     </row>
     <row r="101">
@@ -1249,6 +1249,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>1269642</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1263,7 +1271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2072,7 +2080,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1100077</v>
       </c>
     </row>
     <row r="101">
@@ -2080,6 +2088,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>1074719</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2094,7 +2110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2903,7 +2919,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1793818</v>
       </c>
     </row>
     <row r="101">
@@ -2911,6 +2927,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>1775506</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2925,7 +2949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3734,7 +3758,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>941867</v>
       </c>
     </row>
     <row r="101">
@@ -3742,6 +3766,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>1013785</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>

--- a/list_2_r.xlsx
+++ b/list_2_r.xlsx
@@ -8,9 +8,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="현대차" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="삼성중공업" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HD현대중공업" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="한화오션" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="기아" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="현대모비스" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="삼성중공업" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HD현대중공업" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="한화오션" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1257,7 +1259,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1400647</v>
       </c>
     </row>
   </sheetData>
@@ -1271,7 +1273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1293,810 +1295,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45812</v>
+        <v>45813</v>
       </c>
       <c r="B2" t="n">
-        <v>900315</v>
+        <v>918407</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45813</v>
+        <v>45817</v>
       </c>
       <c r="B3" t="n">
-        <v>820720</v>
+        <v>923210</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="B4" t="n">
-        <v>816345</v>
+        <v>911042</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="B5" t="n">
-        <v>835990</v>
+        <v>984199</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="B6" t="n">
-        <v>839855</v>
+        <v>994834</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="B7" t="n">
-        <v>850249</v>
+        <v>970708</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45821</v>
+        <v>45824</v>
       </c>
       <c r="B8" t="n">
-        <v>844395</v>
+        <v>959793</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="B9" t="n">
-        <v>854532</v>
+        <v>982507</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="B10" t="n">
-        <v>819415</v>
+        <v>959504</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="B11" t="n">
-        <v>843518</v>
+        <v>951743</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="B12" t="n">
-        <v>842601</v>
+        <v>957671</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B13" t="n">
-        <v>804433</v>
+        <v>934962</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B14" t="n">
-        <v>799185</v>
+        <v>952711</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B15" t="n">
-        <v>821966</v>
+        <v>992242</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45833</v>
+        <v>45834</v>
       </c>
       <c r="B16" t="n">
-        <v>794909</v>
+        <v>964244</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="B17" t="n">
-        <v>791816</v>
+        <v>948525</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45835</v>
+        <v>45838</v>
       </c>
       <c r="B18" t="n">
-        <v>742435</v>
+        <v>946363</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45838</v>
+        <v>45839</v>
       </c>
       <c r="B19" t="n">
-        <v>785251</v>
+        <v>958527</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45839</v>
+        <v>45840</v>
       </c>
       <c r="B20" t="n">
-        <v>767666</v>
+        <v>956551</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="B21" t="n">
-        <v>767609</v>
+        <v>965019</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="B22" t="n">
-        <v>758788</v>
+        <v>949413</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45842</v>
+        <v>45845</v>
       </c>
       <c r="B23" t="n">
-        <v>745167</v>
+        <v>947916</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B24" t="n">
-        <v>752141</v>
+        <v>936283</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B25" t="n">
-        <v>803995</v>
+        <v>940033</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B26" t="n">
-        <v>824148</v>
+        <v>946425</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B27" t="n">
-        <v>827979</v>
+        <v>954415</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B28" t="n">
-        <v>830467</v>
+        <v>979978</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B29" t="n">
-        <v>816626</v>
+        <v>955454</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B30" t="n">
-        <v>822992</v>
+        <v>1003702</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B31" t="n">
-        <v>813874</v>
+        <v>997863</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B32" t="n">
-        <v>902508</v>
+        <v>987055</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B33" t="n">
-        <v>873811</v>
+        <v>977488</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B34" t="n">
-        <v>876387</v>
+        <v>953787</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B35" t="n">
-        <v>893428</v>
+        <v>1024671</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B36" t="n">
-        <v>822456</v>
+        <v>1013746</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B37" t="n">
-        <v>838501</v>
+        <v>1018606</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B38" t="n">
-        <v>823574</v>
+        <v>1034054</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B39" t="n">
-        <v>826938</v>
+        <v>1051965</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="B40" t="n">
-        <v>733127</v>
+        <v>1081596</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="B41" t="n">
-        <v>733079</v>
+        <v>1020027</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45869</v>
+        <v>45870</v>
       </c>
       <c r="B42" t="n">
-        <v>749212</v>
+        <v>1014800</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="B43" t="n">
-        <v>704975</v>
+        <v>1036348</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="B44" t="n">
-        <v>736788</v>
+        <v>1018347</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="B45" t="n">
-        <v>767552</v>
+        <v>1026894</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45875</v>
+        <v>45876</v>
       </c>
       <c r="B46" t="n">
-        <v>762009</v>
+        <v>1021107</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="B47" t="n">
-        <v>753374</v>
+        <v>1010094</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45877</v>
+        <v>45880</v>
       </c>
       <c r="B48" t="n">
-        <v>745186</v>
+        <v>1007441</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45880</v>
+        <v>45881</v>
       </c>
       <c r="B49" t="n">
-        <v>755508</v>
+        <v>987306</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="B50" t="n">
-        <v>742505</v>
+        <v>1010057</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B51" t="n">
-        <v>775500</v>
+        <v>1004027</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45883</v>
+        <v>45887</v>
       </c>
       <c r="B52" t="n">
-        <v>764677</v>
+        <v>991408</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B53" t="n">
-        <v>781519</v>
+        <v>1007036</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="B54" t="n">
-        <v>796771</v>
+        <v>1029665</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B55" t="n">
-        <v>773676</v>
+        <v>1012153</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B56" t="n">
-        <v>793106</v>
+        <v>1035302</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45891</v>
+        <v>45894</v>
       </c>
       <c r="B57" t="n">
-        <v>781391</v>
+        <v>1030980</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="B58" t="n">
-        <v>788230</v>
+        <v>1012826</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="B59" t="n">
-        <v>797183</v>
+        <v>1017638</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="B60" t="n">
-        <v>865178</v>
+        <v>1083014</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="B61" t="n">
-        <v>825984</v>
+        <v>1058991</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="B62" t="n">
-        <v>830104</v>
+        <v>1060356</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="B63" t="n">
-        <v>807245</v>
+        <v>1066358</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B64" t="n">
-        <v>826175</v>
+        <v>1063332</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="B65" t="n">
-        <v>831615</v>
+        <v>1062361</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="B66" t="n">
-        <v>838479</v>
+        <v>1044893</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="B67" t="n">
-        <v>844936</v>
+        <v>1025416</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="B68" t="n">
-        <v>852239</v>
+        <v>1017812</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="B69" t="n">
-        <v>826186</v>
+        <v>1024864</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="B70" t="n">
-        <v>796519</v>
+        <v>1012353</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="B71" t="n">
-        <v>825404</v>
+        <v>997835</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="B72" t="n">
-        <v>821582</v>
+        <v>971319</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="B73" t="n">
-        <v>818173</v>
+        <v>962179</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="B74" t="n">
-        <v>807982</v>
+        <v>955079</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="B75" t="n">
-        <v>810912</v>
+        <v>1060508</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B76" t="n">
-        <v>810527</v>
+        <v>993863</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="B77" t="n">
-        <v>812306</v>
+        <v>979961</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B78" t="n">
-        <v>779144</v>
+        <v>983456</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="B79" t="n">
-        <v>774484</v>
+        <v>983357</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="B80" t="n">
-        <v>801979</v>
+        <v>988464</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="B81" t="n">
-        <v>805971</v>
+        <v>987442</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="B82" t="n">
-        <v>755663</v>
+        <v>991773</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="B83" t="n">
-        <v>766546</v>
+        <v>1010413</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="B84" t="n">
-        <v>788039</v>
+        <v>1021178</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="B85" t="n">
-        <v>790315</v>
+        <v>1033044</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45932</v>
+        <v>45940</v>
       </c>
       <c r="B86" t="n">
-        <v>780190</v>
+        <v>967324</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B87" t="n">
-        <v>808632</v>
+        <v>964286</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="B88" t="n">
-        <v>803046</v>
+        <v>958163</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="B89" t="n">
-        <v>773781</v>
+        <v>985624</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B90" t="n">
-        <v>805153</v>
+        <v>1084106</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B91" t="n">
-        <v>846206</v>
+        <v>1081688</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B92" t="n">
-        <v>856619</v>
+        <v>1086038</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="B93" t="n">
-        <v>859252</v>
+        <v>1088561</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B94" t="n">
-        <v>896365</v>
+        <v>1100757</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="B95" t="n">
-        <v>902316</v>
+        <v>1057814</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B96" t="n">
-        <v>892101</v>
+        <v>1043393</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B97" t="n">
-        <v>930298</v>
+        <v>1037315</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B98" t="n">
-        <v>1092795</v>
+        <v>1024903</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45958</v>
+        <v>45959</v>
       </c>
       <c r="B99" t="n">
-        <v>1108744</v>
+        <v>1042531</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="B100" t="n">
-        <v>1100077</v>
+        <v>1032871</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B101" t="n">
-        <v>1074719</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>45961</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0</v>
+        <v>1054154</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2132,810 +2126,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45812</v>
+        <v>45813</v>
       </c>
       <c r="B2" t="n">
-        <v>798437</v>
+        <v>457467</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45813</v>
+        <v>45817</v>
       </c>
       <c r="B3" t="n">
-        <v>802711</v>
+        <v>512917</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="B4" t="n">
-        <v>804930</v>
+        <v>501757</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="B5" t="n">
-        <v>814629</v>
+        <v>520425</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="B6" t="n">
-        <v>809358</v>
+        <v>522311</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="B7" t="n">
-        <v>829636</v>
+        <v>512250</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45821</v>
+        <v>45824</v>
       </c>
       <c r="B8" t="n">
-        <v>848094</v>
+        <v>515421</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="B9" t="n">
-        <v>861799</v>
+        <v>517430</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="B10" t="n">
-        <v>905816</v>
+        <v>538677</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="B11" t="n">
-        <v>883503</v>
+        <v>541589</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="B12" t="n">
-        <v>901407</v>
+        <v>561525</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B13" t="n">
-        <v>931425</v>
+        <v>523111</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B14" t="n">
-        <v>1026036</v>
+        <v>528843</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B15" t="n">
-        <v>1110078</v>
+        <v>535474</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45833</v>
+        <v>45834</v>
       </c>
       <c r="B16" t="n">
-        <v>1052143</v>
+        <v>542187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="B17" t="n">
-        <v>989804</v>
+        <v>535925</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45835</v>
+        <v>45838</v>
       </c>
       <c r="B18" t="n">
-        <v>954134</v>
+        <v>528151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45838</v>
+        <v>45839</v>
       </c>
       <c r="B19" t="n">
-        <v>934035</v>
+        <v>533658</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45839</v>
+        <v>45840</v>
       </c>
       <c r="B20" t="n">
-        <v>873250</v>
+        <v>570290</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="B21" t="n">
-        <v>842371</v>
+        <v>577570</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="B22" t="n">
-        <v>808869</v>
+        <v>577458</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45842</v>
+        <v>45845</v>
       </c>
       <c r="B23" t="n">
-        <v>774188</v>
+        <v>559046</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B24" t="n">
-        <v>781229</v>
+        <v>581123</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B25" t="n">
-        <v>809027</v>
+        <v>588274</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B26" t="n">
-        <v>829883</v>
+        <v>606481</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B27" t="n">
-        <v>837460</v>
+        <v>645400</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B28" t="n">
-        <v>815850</v>
+        <v>670781</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B29" t="n">
-        <v>810222</v>
+        <v>652653</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B30" t="n">
-        <v>781567</v>
+        <v>651099</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B31" t="n">
-        <v>804540</v>
+        <v>664006</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B32" t="n">
-        <v>800434</v>
+        <v>654532</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B33" t="n">
-        <v>794553</v>
+        <v>647851</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B34" t="n">
-        <v>831775</v>
+        <v>640206</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B35" t="n">
-        <v>830788</v>
+        <v>623957</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B36" t="n">
-        <v>808399</v>
+        <v>625885</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B37" t="n">
-        <v>854562</v>
+        <v>631530</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B38" t="n">
-        <v>856654</v>
+        <v>643622</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B39" t="n">
-        <v>900574</v>
+        <v>644528</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="B40" t="n">
-        <v>976892</v>
+        <v>655620</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="B41" t="n">
-        <v>941831</v>
+        <v>628747</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45869</v>
+        <v>45870</v>
       </c>
       <c r="B42" t="n">
-        <v>1006922</v>
+        <v>604008</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="B43" t="n">
-        <v>976549</v>
+        <v>604609</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="B44" t="n">
-        <v>954653</v>
+        <v>606698</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="B45" t="n">
-        <v>936919</v>
+        <v>594262</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45875</v>
+        <v>45876</v>
       </c>
       <c r="B46" t="n">
-        <v>928249</v>
+        <v>567468</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="B47" t="n">
-        <v>958188</v>
+        <v>577295</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45877</v>
+        <v>45880</v>
       </c>
       <c r="B48" t="n">
-        <v>945869</v>
+        <v>574303</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45880</v>
+        <v>45881</v>
       </c>
       <c r="B49" t="n">
-        <v>941007</v>
+        <v>586903</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="B50" t="n">
-        <v>1006990</v>
+        <v>598538</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B51" t="n">
-        <v>1037043</v>
+        <v>585021</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45883</v>
+        <v>45887</v>
       </c>
       <c r="B52" t="n">
-        <v>1049338</v>
+        <v>576696</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B53" t="n">
-        <v>1049168</v>
+        <v>597377</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="B54" t="n">
-        <v>990011</v>
+        <v>572267</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B55" t="n">
-        <v>956613</v>
+        <v>562361</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B56" t="n">
-        <v>1011332</v>
+        <v>565575</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45891</v>
+        <v>45894</v>
       </c>
       <c r="B57" t="n">
-        <v>1050251</v>
+        <v>562833</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="B58" t="n">
-        <v>1069181</v>
+        <v>574964</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="B59" t="n">
-        <v>1026074</v>
+        <v>567221</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="B60" t="n">
-        <v>1152419</v>
+        <v>564552</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="B61" t="n">
-        <v>1221324</v>
+        <v>598522</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="B62" t="n">
-        <v>1414278</v>
+        <v>606195</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="B63" t="n">
-        <v>1426444</v>
+        <v>610890</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B64" t="n">
-        <v>1473132</v>
+        <v>596626</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="B65" t="n">
-        <v>1444522</v>
+        <v>582777</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="B66" t="n">
-        <v>1468285</v>
+        <v>591062</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="B67" t="n">
-        <v>1479565</v>
+        <v>589461</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="B68" t="n">
-        <v>1485047</v>
+        <v>575666</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="B69" t="n">
-        <v>1507587</v>
+        <v>588737</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="B70" t="n">
-        <v>1563474</v>
+        <v>590352</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="B71" t="n">
-        <v>1592538</v>
+        <v>586680</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="B72" t="n">
-        <v>1604651</v>
+        <v>576343</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="B73" t="n">
-        <v>1573322</v>
+        <v>568966</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="B74" t="n">
-        <v>1607298</v>
+        <v>569843</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="B75" t="n">
-        <v>1666383</v>
+        <v>574239</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B76" t="n">
-        <v>1640537</v>
+        <v>559974</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="B77" t="n">
-        <v>1648761</v>
+        <v>535012</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B78" t="n">
-        <v>1644342</v>
+        <v>530715</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="B79" t="n">
-        <v>1622619</v>
+        <v>527246</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="B80" t="n">
-        <v>1637471</v>
+        <v>518623</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="B81" t="n">
-        <v>1660834</v>
+        <v>506725</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="B82" t="n">
-        <v>1561614</v>
+        <v>516439</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="B83" t="n">
-        <v>1562144</v>
+        <v>510241</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="B84" t="n">
-        <v>1587654</v>
+        <v>515513</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="B85" t="n">
-        <v>1625506</v>
+        <v>527866</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45932</v>
+        <v>45940</v>
       </c>
       <c r="B86" t="n">
-        <v>1565085</v>
+        <v>528350</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B87" t="n">
-        <v>1532818</v>
+        <v>492910</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="B88" t="n">
-        <v>1540761</v>
+        <v>520329</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="B89" t="n">
-        <v>1516418</v>
+        <v>543840</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B90" t="n">
-        <v>1572828</v>
+        <v>554118</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B91" t="n">
-        <v>1562795</v>
+        <v>547371</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B92" t="n">
-        <v>1685315</v>
+        <v>555457</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="B93" t="n">
-        <v>1658511</v>
+        <v>546585</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B94" t="n">
-        <v>1779600</v>
+        <v>537056</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="B95" t="n">
-        <v>1806586</v>
+        <v>566481</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B96" t="n">
-        <v>1811845</v>
+        <v>563777</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B97" t="n">
-        <v>1887798</v>
+        <v>558977</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B98" t="n">
-        <v>1965804</v>
+        <v>554747</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45958</v>
+        <v>45959</v>
       </c>
       <c r="B99" t="n">
-        <v>1902366</v>
+        <v>553088</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="B100" t="n">
-        <v>1793818</v>
+        <v>548914</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B101" t="n">
-        <v>1775506</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>45961</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0</v>
+        <v>548613</v>
       </c>
     </row>
   </sheetData>
@@ -2974,7 +2960,7 @@
         <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>603423</v>
+        <v>900315</v>
       </c>
     </row>
     <row r="3">
@@ -2982,7 +2968,7 @@
         <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>621714</v>
+        <v>820720</v>
       </c>
     </row>
     <row r="4">
@@ -2990,7 +2976,7 @@
         <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>606346</v>
+        <v>816345</v>
       </c>
     </row>
     <row r="5">
@@ -2998,7 +2984,7 @@
         <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>636158</v>
+        <v>835990</v>
       </c>
     </row>
     <row r="6">
@@ -3006,7 +2992,7 @@
         <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>631383</v>
+        <v>839855</v>
       </c>
     </row>
     <row r="7">
@@ -3014,7 +3000,7 @@
         <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>684619</v>
+        <v>850249</v>
       </c>
     </row>
     <row r="8">
@@ -3022,7 +3008,7 @@
         <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>686183</v>
+        <v>844395</v>
       </c>
     </row>
     <row r="9">
@@ -3030,7 +3016,7 @@
         <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>694219</v>
+        <v>854532</v>
       </c>
     </row>
     <row r="10">
@@ -3038,7 +3024,7 @@
         <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>726255</v>
+        <v>819415</v>
       </c>
     </row>
     <row r="11">
@@ -3046,7 +3032,7 @@
         <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>740388</v>
+        <v>843518</v>
       </c>
     </row>
     <row r="12">
@@ -3054,7 +3040,7 @@
         <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>601383</v>
+        <v>842601</v>
       </c>
     </row>
     <row r="13">
@@ -3062,7 +3048,7 @@
         <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>608959</v>
+        <v>804433</v>
       </c>
     </row>
     <row r="14">
@@ -3070,7 +3056,7 @@
         <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>603980</v>
+        <v>799185</v>
       </c>
     </row>
     <row r="15">
@@ -3078,7 +3064,7 @@
         <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>634012</v>
+        <v>821966</v>
       </c>
     </row>
     <row r="16">
@@ -3086,7 +3072,7 @@
         <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>620416</v>
+        <v>794909</v>
       </c>
     </row>
     <row r="17">
@@ -3094,7 +3080,7 @@
         <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>611138</v>
+        <v>791816</v>
       </c>
     </row>
     <row r="18">
@@ -3102,7 +3088,7 @@
         <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>615295</v>
+        <v>742435</v>
       </c>
     </row>
     <row r="19">
@@ -3110,7 +3096,7 @@
         <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>606541</v>
+        <v>785251</v>
       </c>
     </row>
     <row r="20">
@@ -3118,7 +3104,7 @@
         <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>610583</v>
+        <v>767666</v>
       </c>
     </row>
     <row r="21">
@@ -3126,7 +3112,7 @@
         <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>612116</v>
+        <v>767609</v>
       </c>
     </row>
     <row r="22">
@@ -3134,7 +3120,7 @@
         <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>619249</v>
+        <v>758788</v>
       </c>
     </row>
     <row r="23">
@@ -3142,7 +3128,7 @@
         <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>579939</v>
+        <v>745167</v>
       </c>
     </row>
     <row r="24">
@@ -3150,7 +3136,7 @@
         <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>589345</v>
+        <v>752141</v>
       </c>
     </row>
     <row r="25">
@@ -3158,7 +3144,7 @@
         <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>615315</v>
+        <v>803995</v>
       </c>
     </row>
     <row r="26">
@@ -3166,7 +3152,7 @@
         <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>633102</v>
+        <v>824148</v>
       </c>
     </row>
     <row r="27">
@@ -3174,7 +3160,7 @@
         <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>657498</v>
+        <v>827979</v>
       </c>
     </row>
     <row r="28">
@@ -3182,7 +3168,7 @@
         <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>681323</v>
+        <v>830467</v>
       </c>
     </row>
     <row r="29">
@@ -3190,7 +3176,7 @@
         <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>664185</v>
+        <v>816626</v>
       </c>
     </row>
     <row r="30">
@@ -3198,7 +3184,7 @@
         <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>667876</v>
+        <v>822992</v>
       </c>
     </row>
     <row r="31">
@@ -3206,7 +3192,7 @@
         <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>698537</v>
+        <v>813874</v>
       </c>
     </row>
     <row r="32">
@@ -3214,7 +3200,7 @@
         <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>707470</v>
+        <v>902508</v>
       </c>
     </row>
     <row r="33">
@@ -3222,7 +3208,7 @@
         <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>698981</v>
+        <v>873811</v>
       </c>
     </row>
     <row r="34">
@@ -3230,7 +3216,7 @@
         <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>737261</v>
+        <v>876387</v>
       </c>
     </row>
     <row r="35">
@@ -3238,7 +3224,7 @@
         <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>749481</v>
+        <v>893428</v>
       </c>
     </row>
     <row r="36">
@@ -3246,7 +3232,7 @@
         <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>737252</v>
+        <v>822456</v>
       </c>
     </row>
     <row r="37">
@@ -3254,7 +3240,7 @@
         <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>778003</v>
+        <v>838501</v>
       </c>
     </row>
     <row r="38">
@@ -3262,7 +3248,7 @@
         <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>782972</v>
+        <v>823574</v>
       </c>
     </row>
     <row r="39">
@@ -3270,7 +3256,7 @@
         <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>821664</v>
+        <v>826938</v>
       </c>
     </row>
     <row r="40">
@@ -3278,7 +3264,7 @@
         <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>740027</v>
+        <v>733127</v>
       </c>
     </row>
     <row r="41">
@@ -3286,7 +3272,7 @@
         <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>710025</v>
+        <v>733079</v>
       </c>
     </row>
     <row r="42">
@@ -3294,7 +3280,7 @@
         <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>828931</v>
+        <v>749212</v>
       </c>
     </row>
     <row r="43">
@@ -3302,7 +3288,7 @@
         <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>856342</v>
+        <v>704975</v>
       </c>
     </row>
     <row r="44">
@@ -3310,7 +3296,7 @@
         <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>853303</v>
+        <v>736788</v>
       </c>
     </row>
     <row r="45">
@@ -3318,7 +3304,7 @@
         <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>852631</v>
+        <v>767552</v>
       </c>
     </row>
     <row r="46">
@@ -3326,7 +3312,7 @@
         <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>824998</v>
+        <v>762009</v>
       </c>
     </row>
     <row r="47">
@@ -3334,7 +3320,7 @@
         <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>813968</v>
+        <v>753374</v>
       </c>
     </row>
     <row r="48">
@@ -3342,7 +3328,7 @@
         <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>807931</v>
+        <v>745186</v>
       </c>
     </row>
     <row r="49">
@@ -3350,7 +3336,7 @@
         <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>747899</v>
+        <v>755508</v>
       </c>
     </row>
     <row r="50">
@@ -3358,7 +3344,7 @@
         <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>718148</v>
+        <v>742505</v>
       </c>
     </row>
     <row r="51">
@@ -3366,7 +3352,7 @@
         <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>734096</v>
+        <v>775500</v>
       </c>
     </row>
     <row r="52">
@@ -3374,7 +3360,7 @@
         <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>712303</v>
+        <v>764677</v>
       </c>
     </row>
     <row r="53">
@@ -3382,7 +3368,7 @@
         <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>736661</v>
+        <v>781519</v>
       </c>
     </row>
     <row r="54">
@@ -3390,7 +3376,7 @@
         <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>706693</v>
+        <v>796771</v>
       </c>
     </row>
     <row r="55">
@@ -3398,7 +3384,7 @@
         <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>703749</v>
+        <v>773676</v>
       </c>
     </row>
     <row r="56">
@@ -3406,7 +3392,7 @@
         <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>725211</v>
+        <v>793106</v>
       </c>
     </row>
     <row r="57">
@@ -3414,7 +3400,7 @@
         <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>759451</v>
+        <v>781391</v>
       </c>
     </row>
     <row r="58">
@@ -3422,7 +3408,7 @@
         <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>780558</v>
+        <v>788230</v>
       </c>
     </row>
     <row r="59">
@@ -3430,7 +3416,7 @@
         <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>744264</v>
+        <v>797183</v>
       </c>
     </row>
     <row r="60">
@@ -3438,7 +3424,7 @@
         <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>796040</v>
+        <v>865178</v>
       </c>
     </row>
     <row r="61">
@@ -3446,7 +3432,7 @@
         <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>824994</v>
+        <v>825984</v>
       </c>
     </row>
     <row r="62">
@@ -3454,7 +3440,7 @@
         <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>832119</v>
+        <v>830104</v>
       </c>
     </row>
     <row r="63">
@@ -3462,7 +3448,7 @@
         <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>854001</v>
+        <v>807245</v>
       </c>
     </row>
     <row r="64">
@@ -3470,7 +3456,7 @@
         <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>906667</v>
+        <v>826175</v>
       </c>
     </row>
     <row r="65">
@@ -3478,7 +3464,7 @@
         <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>815396</v>
+        <v>831615</v>
       </c>
     </row>
     <row r="66">
@@ -3486,7 +3472,7 @@
         <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>790047</v>
+        <v>838479</v>
       </c>
     </row>
     <row r="67">
@@ -3494,7 +3480,7 @@
         <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>782861</v>
+        <v>844936</v>
       </c>
     </row>
     <row r="68">
@@ -3502,7 +3488,7 @@
         <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>805492</v>
+        <v>852239</v>
       </c>
     </row>
     <row r="69">
@@ -3510,7 +3496,7 @@
         <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>1302229</v>
+        <v>826186</v>
       </c>
     </row>
     <row r="70">
@@ -3518,7 +3504,7 @@
         <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>1340852</v>
+        <v>796519</v>
       </c>
     </row>
     <row r="71">
@@ -3526,7 +3512,7 @@
         <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>1320774</v>
+        <v>825404</v>
       </c>
     </row>
     <row r="72">
@@ -3534,7 +3520,7 @@
         <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>1246321</v>
+        <v>821582</v>
       </c>
     </row>
     <row r="73">
@@ -3542,7 +3528,7 @@
         <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>1176624</v>
+        <v>818173</v>
       </c>
     </row>
     <row r="74">
@@ -3550,7 +3536,7 @@
         <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>1120876</v>
+        <v>807982</v>
       </c>
     </row>
     <row r="75">
@@ -3558,7 +3544,7 @@
         <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>1124446</v>
+        <v>810912</v>
       </c>
     </row>
     <row r="76">
@@ -3566,7 +3552,7 @@
         <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>1074790</v>
+        <v>810527</v>
       </c>
     </row>
     <row r="77">
@@ -3574,7 +3560,7 @@
         <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>1020586</v>
+        <v>812306</v>
       </c>
     </row>
     <row r="78">
@@ -3582,7 +3568,7 @@
         <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>978509</v>
+        <v>779144</v>
       </c>
     </row>
     <row r="79">
@@ -3590,7 +3576,7 @@
         <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>971206</v>
+        <v>774484</v>
       </c>
     </row>
     <row r="80">
@@ -3598,7 +3584,7 @@
         <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>966777</v>
+        <v>801979</v>
       </c>
     </row>
     <row r="81">
@@ -3606,7 +3592,7 @@
         <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>953411</v>
+        <v>805971</v>
       </c>
     </row>
     <row r="82">
@@ -3614,7 +3600,7 @@
         <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>904018</v>
+        <v>755663</v>
       </c>
     </row>
     <row r="83">
@@ -3622,7 +3608,7 @@
         <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>909924</v>
+        <v>766546</v>
       </c>
     </row>
     <row r="84">
@@ -3630,7 +3616,7 @@
         <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>923281</v>
+        <v>788039</v>
       </c>
     </row>
     <row r="85">
@@ -3638,7 +3624,7 @@
         <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>922552</v>
+        <v>790315</v>
       </c>
     </row>
     <row r="86">
@@ -3646,7 +3632,7 @@
         <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>930346</v>
+        <v>780190</v>
       </c>
     </row>
     <row r="87">
@@ -3654,7 +3640,7 @@
         <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>926251</v>
+        <v>808632</v>
       </c>
     </row>
     <row r="88">
@@ -3662,7 +3648,7 @@
         <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>910097</v>
+        <v>803046</v>
       </c>
     </row>
     <row r="89">
@@ -3670,7 +3656,7 @@
         <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>840682</v>
+        <v>773781</v>
       </c>
     </row>
     <row r="90">
@@ -3678,7 +3664,7 @@
         <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>922184</v>
+        <v>805153</v>
       </c>
     </row>
     <row r="91">
@@ -3686,7 +3672,7 @@
         <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>930526</v>
+        <v>846206</v>
       </c>
     </row>
     <row r="92">
@@ -3694,7 +3680,7 @@
         <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>889583</v>
+        <v>856619</v>
       </c>
     </row>
     <row r="93">
@@ -3702,7 +3688,7 @@
         <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>1001571</v>
+        <v>859252</v>
       </c>
     </row>
     <row r="94">
@@ -3710,7 +3696,7 @@
         <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>975676</v>
+        <v>896365</v>
       </c>
     </row>
     <row r="95">
@@ -3718,7 +3704,7 @@
         <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>995449</v>
+        <v>902316</v>
       </c>
     </row>
     <row r="96">
@@ -3726,7 +3712,7 @@
         <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>1009805</v>
+        <v>892101</v>
       </c>
     </row>
     <row r="97">
@@ -3734,7 +3720,7 @@
         <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>1017010</v>
+        <v>930298</v>
       </c>
     </row>
     <row r="98">
@@ -3742,7 +3728,7 @@
         <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>1053614</v>
+        <v>1092795</v>
       </c>
     </row>
     <row r="99">
@@ -3750,7 +3736,7 @@
         <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>961897</v>
+        <v>1108744</v>
       </c>
     </row>
     <row r="100">
@@ -3758,7 +3744,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>941867</v>
+        <v>1100077</v>
       </c>
     </row>
     <row r="101">
@@ -3766,7 +3752,7 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>1013785</v>
+        <v>1074719</v>
       </c>
     </row>
     <row r="102">
@@ -3774,7 +3760,1685 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1028944</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>remn_amt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B2" t="n">
+        <v>798437</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B3" t="n">
+        <v>802711</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B4" t="n">
+        <v>804930</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B5" t="n">
+        <v>814629</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B6" t="n">
+        <v>809358</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B7" t="n">
+        <v>829636</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B8" t="n">
+        <v>848094</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B9" t="n">
+        <v>861799</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B10" t="n">
+        <v>905816</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B11" t="n">
+        <v>883503</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B12" t="n">
+        <v>901407</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B13" t="n">
+        <v>931425</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1026036</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1110078</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1052143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B17" t="n">
+        <v>989804</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B18" t="n">
+        <v>954134</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B19" t="n">
+        <v>934035</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B20" t="n">
+        <v>873250</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B21" t="n">
+        <v>842371</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B22" t="n">
+        <v>808869</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B23" t="n">
+        <v>774188</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B24" t="n">
+        <v>781229</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B25" t="n">
+        <v>809027</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B26" t="n">
+        <v>829883</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B27" t="n">
+        <v>837460</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B28" t="n">
+        <v>815850</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B29" t="n">
+        <v>810222</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B30" t="n">
+        <v>781567</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B31" t="n">
+        <v>804540</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B32" t="n">
+        <v>800434</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B33" t="n">
+        <v>794553</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B34" t="n">
+        <v>831775</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B35" t="n">
+        <v>830788</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B36" t="n">
+        <v>808399</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B37" t="n">
+        <v>854562</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B38" t="n">
+        <v>856654</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B39" t="n">
+        <v>900574</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B40" t="n">
+        <v>976892</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B41" t="n">
+        <v>941831</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1006922</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B43" t="n">
+        <v>976549</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B44" t="n">
+        <v>954653</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B45" t="n">
+        <v>936919</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B46" t="n">
+        <v>928249</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B47" t="n">
+        <v>958188</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B48" t="n">
+        <v>945869</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B49" t="n">
+        <v>941007</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1006990</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1037043</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1049338</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1049168</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B54" t="n">
+        <v>990011</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B55" t="n">
+        <v>956613</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1011332</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1050251</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1069181</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1026074</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1152419</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1221324</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1414278</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1426444</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1473132</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1444522</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1468285</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1479565</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1485047</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1507587</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1563474</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1592538</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1604651</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1573322</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1607298</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1666383</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1640537</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1648761</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1644342</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1622619</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1637471</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1660834</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1561614</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1562144</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1587654</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1625506</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1565085</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1532818</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1540761</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1516418</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1572828</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1562795</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1685315</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1658511</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1779600</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1806586</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1811845</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1887798</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1965804</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1902366</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1793818</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1775506</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1787165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>remn_amt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B2" t="n">
+        <v>603423</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B3" t="n">
+        <v>621714</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B4" t="n">
+        <v>606346</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B5" t="n">
+        <v>636158</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B6" t="n">
+        <v>631383</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B7" t="n">
+        <v>684619</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B8" t="n">
+        <v>686183</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B9" t="n">
+        <v>694219</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B10" t="n">
+        <v>726255</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B11" t="n">
+        <v>740388</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B12" t="n">
+        <v>601383</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B13" t="n">
+        <v>608959</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B14" t="n">
+        <v>603980</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B15" t="n">
+        <v>634012</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B16" t="n">
+        <v>620416</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B17" t="n">
+        <v>611138</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B18" t="n">
+        <v>615295</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B19" t="n">
+        <v>606541</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B20" t="n">
+        <v>610583</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B21" t="n">
+        <v>612116</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B22" t="n">
+        <v>619249</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B23" t="n">
+        <v>579939</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B24" t="n">
+        <v>589345</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B25" t="n">
+        <v>615315</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B26" t="n">
+        <v>633102</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B27" t="n">
+        <v>657498</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B28" t="n">
+        <v>681323</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B29" t="n">
+        <v>664185</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B30" t="n">
+        <v>667876</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B31" t="n">
+        <v>698537</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B32" t="n">
+        <v>707470</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B33" t="n">
+        <v>698981</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B34" t="n">
+        <v>737261</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B35" t="n">
+        <v>749481</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B36" t="n">
+        <v>737252</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B37" t="n">
+        <v>778003</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B38" t="n">
+        <v>782972</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B39" t="n">
+        <v>821664</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B40" t="n">
+        <v>740027</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B41" t="n">
+        <v>710025</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B42" t="n">
+        <v>828931</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B43" t="n">
+        <v>856342</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B44" t="n">
+        <v>853303</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B45" t="n">
+        <v>852631</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B46" t="n">
+        <v>824998</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B47" t="n">
+        <v>813968</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B48" t="n">
+        <v>807931</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B49" t="n">
+        <v>747899</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B50" t="n">
+        <v>718148</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B51" t="n">
+        <v>734096</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B52" t="n">
+        <v>712303</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B53" t="n">
+        <v>736661</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B54" t="n">
+        <v>706693</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B55" t="n">
+        <v>703749</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B56" t="n">
+        <v>725211</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B57" t="n">
+        <v>759451</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B58" t="n">
+        <v>780558</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B59" t="n">
+        <v>744264</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B60" t="n">
+        <v>796040</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B61" t="n">
+        <v>824994</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B62" t="n">
+        <v>832119</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B63" t="n">
+        <v>854001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B64" t="n">
+        <v>906667</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B65" t="n">
+        <v>815396</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B66" t="n">
+        <v>790047</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B67" t="n">
+        <v>782861</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B68" t="n">
+        <v>805492</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1302229</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1340852</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1320774</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1246321</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1176624</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1120876</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1124446</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1074790</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1020586</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B78" t="n">
+        <v>978509</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B79" t="n">
+        <v>971206</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B80" t="n">
+        <v>966777</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B81" t="n">
+        <v>953411</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B82" t="n">
+        <v>904018</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B83" t="n">
+        <v>909924</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B84" t="n">
+        <v>923281</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B85" t="n">
+        <v>922552</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B86" t="n">
+        <v>930346</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B87" t="n">
+        <v>926251</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B88" t="n">
+        <v>910097</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B89" t="n">
+        <v>840682</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B90" t="n">
+        <v>922184</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B91" t="n">
+        <v>930526</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B92" t="n">
+        <v>889583</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1001571</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B94" t="n">
+        <v>975676</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B95" t="n">
+        <v>995449</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1009805</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1017010</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1053614</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B99" t="n">
+        <v>961897</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B100" t="n">
+        <v>941867</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1013785</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
+        <v>958612</v>
       </c>
     </row>
   </sheetData>
